--- a/data/raw_data.xlsx
+++ b/data/raw_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safae\OneDrive\Рабочий стол\ЛАБА цифровых технологий\pichugin_project\git_project\azamat_oil\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E34B3B3-B5FC-406F-91E5-D9C566042FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC598B5-0B1C-4D74-8544-F54F890B118C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="дебит жидк." sheetId="1" r:id="rId1"/>
@@ -45,10 +45,20 @@
   <commentList>
     <comment ref="C12" authorId="0" shapeId="0" xr:uid="{F4A9C319-985A-4909-BE7C-1690B75F6BEB}">
       <text>
-        <t>[Цепочка примечаний]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Xi: -(Приемистость INJEi)</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -860,7 +870,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -893,13 +903,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -1001,7 +1004,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1021,20 +1024,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1043,6 +1039,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Вывод" xfId="1" builtinId="21"/>
@@ -1065,16 +1067,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>283210</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>523269</xdr:colOff>
+      <xdr:colOff>165129</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>132788</xdr:rowOff>
+      <xdr:rowOff>163268</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1097,8 +1099,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7480300" y="609600"/>
-          <a:ext cx="4847619" cy="4495238"/>
+          <a:off x="6965950" y="636270"/>
+          <a:ext cx="4758719" cy="4464758"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1117,9 +1119,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1157,9 +1159,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1192,9 +1194,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1227,9 +1246,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1414,7 +1450,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13751,11 +13787,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
@@ -26086,8 +26125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView topLeftCell="R12" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38422,10 +38461,13 @@
   <dimension ref="A1:AK122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
@@ -52221,10 +52263,13 @@
   <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
@@ -68106,8 +68151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -69439,8 +69484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6804A8C7-B9B7-425C-8CC5-DDC6F0100406}">
   <dimension ref="B1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -69449,112 +69494,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C3" s="10">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C6" s="10">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>221</v>
       </c>
       <c r="K6" t="s">
@@ -69574,22 +69619,22 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="7" t="s">
         <v>222</v>
       </c>
     </row>
@@ -69597,739 +69642,733 @@
       <c r="J8" t="s">
         <v>254</v>
       </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="16"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="13"/>
       <c r="P8" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
       <c r="J10" t="s">
         <v>255</v>
       </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
       <c r="P10" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="M11" s="15"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="7" t="s">
         <v>218</v>
       </c>
       <c r="J12" t="s">
         <v>256</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
       <c r="P12" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="14"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="11"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="7" t="s">
         <v>220</v>
       </c>
       <c r="J14" t="s">
         <v>257</v>
       </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="13"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="10"/>
       <c r="P14" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="15"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="12"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="7" t="s">
         <v>222</v>
       </c>
       <c r="J16" t="s">
         <v>263</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="15"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="12"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="15"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="12"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J18" t="s">
         <v>264</v>
       </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="12"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="7" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="7" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="7" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="7" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="7" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="7" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="7" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="7" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="7" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="7" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="7" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="7" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="7" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="7" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="7" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G48" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G49" s="7" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="7" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="G51" s="7" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="7" t="s">
         <v>222</v>
       </c>
     </row>

--- a/data/raw_data.xlsx
+++ b/data/raw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safae\OneDrive\Рабочий стол\ЛАБА цифровых технологий\pichugin_project\git_project\azamat_oil\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC598B5-0B1C-4D74-8544-F54F890B118C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E64814-CE09-4745-9B2F-07616FE7E967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26126,10 +26126,13 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
@@ -38461,7 +38464,7 @@
   <dimension ref="A1:AK122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52263,7 +52266,7 @@
   <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54353,10 +54356,13 @@
   <dimension ref="A1:AK122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
@@ -69485,7 +69491,7 @@
   <dimension ref="B1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/raw_data.xlsx
+++ b/data/raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safae\OneDrive\Рабочий стол\ЛАБА цифровых технологий\pichugin_project\git_project\azamat_oil\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E64814-CE09-4745-9B2F-07616FE7E967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A5C2F0-A7F7-4861-83A3-EB351883C815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="дебит жидк." sheetId="1" r:id="rId1"/>
@@ -13788,7 +13788,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -68157,8 +68157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -69490,8 +69490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6804A8C7-B9B7-425C-8CC5-DDC6F0100406}">
   <dimension ref="B1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="104" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/raw_data.xlsx
+++ b/data/raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safae\OneDrive\Рабочий стол\ЛАБА цифровых технологий\pichugin_project\git_project\azamat_oil\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC953E1F-432B-4E50-B978-BBA52F9D0133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1A4BBF-BF8D-4E09-AD78-49A5B78E3D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="дебит жидк." sheetId="1" r:id="rId1"/>
@@ -22,14 +22,12 @@
     <sheet name="Координаты и перфорации" sheetId="7" r:id="rId7"/>
     <sheet name="Архитектура данных" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -1068,15 +1066,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>397510</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>279429</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>148028</xdr:rowOff>
+      <xdr:colOff>218469</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>10868</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1099,7 +1097,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7080250" y="438150"/>
+          <a:off x="7019290" y="118110"/>
           <a:ext cx="4758719" cy="4464758"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13788,7 +13786,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26125,8 +26123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38463,8 +38461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AK122"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52265,8 +52263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AK122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -66067,8 +66065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -68158,7 +68156,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+      <selection activeCell="V13" sqref="V13:V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -69491,7 +69489,7 @@
   <dimension ref="B1:P52"/>
   <sheetViews>
     <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
